--- a/Apr 2020 to May 2020 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Apr 2020 to May 2020 - Cord Cutting Wizard - Change Log.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DFDE4D-C89B-48D4-8BCD-36D4281AF8FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5F3307-28E5-412B-8F55-219C0C30B812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Mar 2020 to Apr 2020" sheetId="1" r:id="rId1"/>
+    <sheet name="Apr 2020 to May 2020" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Mar 2020 to Apr 2020'!$A$1:$E$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Apr 2020 to May 2020'!$A$1:$E$26</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -1003,7 +1003,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/Apr 2020 to May 2020 - Cord Cutting Wizard - Change Log.xlsx
+++ b/Apr 2020 to May 2020 - Cord Cutting Wizard - Change Log.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5F3307-28E5-412B-8F55-219C0C30B812}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6095F740-244D-4F58-A6B7-27B41CEC4F33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,19 +139,19 @@
     <t>Videorola</t>
   </si>
   <si>
-    <t>Old Network removed from database in May 2020</t>
-  </si>
-  <si>
-    <t>Network removed from base Service in May 2020</t>
-  </si>
-  <si>
-    <t>Network removed from Add-On Service in May 2020</t>
-  </si>
-  <si>
-    <t>Network moved from base Service to Add-On Service in May 2020</t>
-  </si>
-  <si>
-    <t>Network added to base Service in May 2020</t>
+    <t>Network Removed from Database</t>
+  </si>
+  <si>
+    <t>Network Removed from Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Added to Base Service</t>
+  </si>
+  <si>
+    <t>Network Moved from Base Service to Add-On Package</t>
+  </si>
+  <si>
+    <t>Network Removed from Base Service</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1003,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1043,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
@@ -1057,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.4">
@@ -1099,7 +1099,7 @@
         <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
@@ -1113,7 +1113,7 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
@@ -1127,7 +1127,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
@@ -1379,7 +1379,7 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.4">
@@ -1393,7 +1393,7 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.4">
@@ -1407,7 +1407,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.4">
@@ -1421,7 +1421,7 @@
         <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
